--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_6_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_6_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.133233369395878, 9.447974756916604]</t>
+          <t>[4.075321314796454, 9.505886811516028]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.163270008854084e-07</v>
+        <v>1.366120800039283e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>8.163270008854084e-07</v>
+        <v>1.366120800039283e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-1.132105460753078</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, -0.729579074707539]</t>
+          <t>[-1.54721079636254, -0.7170001251436169]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.398026730636275e-08</v>
+        <v>1.519782089065558e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>6.398026730636275e-08</v>
+        <v>1.519782089065558e-07</v>
       </c>
       <c r="S2" t="n">
         <v>9.149266621432421</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.706111061145782, 10.59242218171906]</t>
+          <t>[7.706942433375938, 10.591590809488903]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.545945945946038</v>
       </c>
       <c r="X2" t="n">
-        <v>2.929609609609667</v>
+        <v>2.87909909909916</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.162282282282408</v>
+        <v>6.212792792792916</v>
       </c>
     </row>
     <row r="3">
@@ -670,21 +670,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.457941599026665, 9.189993815195937]</t>
+          <t>[4.4433339711680695, 9.204601443054532]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.643621321851697e-08</v>
+        <v>3.191533193280804e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>5.287242643703394e-08</v>
+        <v>6.383066386561609e-08</v>
       </c>
       <c r="O3" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.220184598032427, 2.924605773612119]</t>
+          <t>[2.207605648468503, 2.937184723176043]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.807404461877758, 10.327204899300682]</t>
+          <t>[7.807052220851402, 10.32755714032704]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>14.1269269269271</v>
       </c>
       <c r="X3" t="n">
-        <v>12.78606606606623</v>
+        <v>12.73817817817834</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.46778778778798</v>
+        <v>15.51567567567587</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_6_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_6_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.075321314796454, 9.505886811516028]</t>
+          <t>[4.09680750722821, 9.484400619084273]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.366120800039283e-06</v>
+        <v>1.13262779000145e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.366120800039283e-06</v>
+        <v>1.13262779000145e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-1.132105460753078</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.54721079636254, -0.7170001251436169]</t>
+          <t>[-1.559789745926464, -0.704421175579693]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.519782089065558e-07</v>
+        <v>3.366174989860582e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.519782089065558e-07</v>
+        <v>3.366174989860582e-07</v>
       </c>
       <c r="S2" t="n">
         <v>9.149266621432421</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.706942433375938, 10.591590809488903]</t>
+          <t>[7.705031938371157, 10.593501304493685]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.545945945946038</v>
       </c>
       <c r="X2" t="n">
-        <v>2.87909909909916</v>
+        <v>2.828588588588645</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.212792792792916</v>
+        <v>6.26330330330343</v>
       </c>
     </row>
     <row r="3">
@@ -670,21 +670,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.4433339711680695, 9.204601443054532]</t>
+          <t>[4.373057120447649, 9.274878293774952]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.191533193280804e-08</v>
+        <v>7.560663051187078e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>6.383066386561609e-08</v>
+        <v>1.512132610237416e-07</v>
       </c>
       <c r="O3" t="n">
         <v>2.572395185822273</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.207605648468503, 2.937184723176043]</t>
+          <t>[2.220184598032427, 2.924605773612119]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.807052220851402, 10.32755714032704]</t>
+          <t>[7.807701024763019, 10.326908336415421]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>14.1269269269271</v>
       </c>
       <c r="X3" t="n">
-        <v>12.73817817817834</v>
+        <v>12.78606606606623</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.51567567567587</v>
+        <v>15.46778778778798</v>
       </c>
     </row>
   </sheetData>
